--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_MCPS_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_MCPS_No_Lineal_Estacionario_SETAR.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.786547196575913</v>
+        <v>0.8473667966228036</v>
       </c>
       <c r="D2">
-        <v>0.9221949180096924</v>
+        <v>0.9341805931064964</v>
       </c>
       <c r="E2">
-        <v>0.3906734647434016</v>
+        <v>0.3057721417331292</v>
       </c>
       <c r="F2">
-        <v>0.2326624141434501</v>
+        <v>0.233290907269317</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.786547196575913</v>
+        <v>0.8473667966228036</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.8961161254506465</v>
+        <v>0.9134837200885222</v>
       </c>
       <c r="E3">
-        <v>0.5183857326982415</v>
+        <v>0.5625568701275099</v>
       </c>
       <c r="F3">
-        <v>0.4897426593643495</v>
+        <v>0.5261978668931748</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9221949180096924</v>
+        <v>0.9341805931064964</v>
       </c>
       <c r="C4">
-        <v>0.8961161254506465</v>
+        <v>0.9134837200885222</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.2353449156392424</v>
+        <v>0.175831384098754</v>
       </c>
       <c r="F4">
-        <v>0.4274658425783748</v>
+        <v>0.5266221328077765</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3906734647434016</v>
+        <v>0.3057721417331292</v>
       </c>
       <c r="C5">
-        <v>0.5183857326982415</v>
+        <v>0.5625568701275099</v>
       </c>
       <c r="D5">
-        <v>0.2353449156392424</v>
+        <v>0.175831384098754</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.9045143094063333</v>
+        <v>0.9176839217878889</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2326624141434501</v>
+        <v>0.233290907269317</v>
       </c>
       <c r="C6">
-        <v>0.4897426593643495</v>
+        <v>0.5261978668931748</v>
       </c>
       <c r="D6">
-        <v>0.4274658425783748</v>
+        <v>0.5266221328077765</v>
       </c>
       <c r="E6">
-        <v>0.9045143094063333</v>
+        <v>0.9176839217878889</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.2709487122915983</v>
+        <v>-0.1960779145433331</v>
       </c>
       <c r="D2">
-        <v>-0.09772074562201201</v>
+        <v>-0.08408345448158552</v>
       </c>
       <c r="E2">
-        <v>-0.8591754866395449</v>
+        <v>-1.063005742191642</v>
       </c>
       <c r="F2">
-        <v>-1.195040852930461</v>
+        <v>-1.245780504086022</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2709487122915983</v>
+        <v>0.1960779145433331</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1306385070250619</v>
+        <v>0.1106253065631983</v>
       </c>
       <c r="E3">
-        <v>-0.6463137295944024</v>
+        <v>-0.5931256949115136</v>
       </c>
       <c r="F3">
-        <v>-0.6912510453105571</v>
+        <v>-0.6500273470049559</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09772074562201201</v>
+        <v>0.08408345448158552</v>
       </c>
       <c r="C4">
-        <v>-0.1306385070250619</v>
+        <v>-0.1106253065631983</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1.188196189385764</v>
+        <v>-1.425835432289283</v>
       </c>
       <c r="F4">
-        <v>-0.7942110923494031</v>
+        <v>-0.6493509535679736</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8591754866395449</v>
+        <v>1.063005742191642</v>
       </c>
       <c r="C5">
-        <v>0.6463137295944024</v>
+        <v>0.5931256949115136</v>
       </c>
       <c r="D5">
-        <v>1.188196189385764</v>
+        <v>1.425835432289283</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1200241912967332</v>
+        <v>0.1052328286658491</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.195040852930461</v>
+        <v>1.245780504086022</v>
       </c>
       <c r="C6">
-        <v>0.6912510453105571</v>
+        <v>0.6500273470049559</v>
       </c>
       <c r="D6">
-        <v>0.7942110923494031</v>
+        <v>0.6493509535679736</v>
       </c>
       <c r="E6">
-        <v>-0.1200241912967332</v>
+        <v>-0.1052328286658491</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_MCPS_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_MCPS_No_Lineal_Estacionario_SETAR.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8473667966228036</v>
+        <v>0.409248244557586</v>
       </c>
       <c r="D2">
-        <v>0.9341805931064964</v>
+        <v>0.1994979188720125</v>
       </c>
       <c r="E2">
-        <v>0.3057721417331292</v>
+        <v>0.4030690376046415</v>
       </c>
       <c r="F2">
-        <v>0.233290907269317</v>
+        <v>0.6193835340776568</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8473667966228036</v>
+        <v>0.409248244557586</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9134837200885222</v>
+        <v>0.9313242185076951</v>
       </c>
       <c r="E3">
-        <v>0.5625568701275099</v>
+        <v>0.8867050914010124</v>
       </c>
       <c r="F3">
-        <v>0.5261978668931748</v>
+        <v>0.8136704747584471</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9341805931064964</v>
+        <v>0.1994979188720125</v>
       </c>
       <c r="C4">
-        <v>0.9134837200885222</v>
+        <v>0.9313242185076951</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.175831384098754</v>
+        <v>0.8125646696020519</v>
       </c>
       <c r="F4">
-        <v>0.5266221328077765</v>
+        <v>0.7222417671898405</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3057721417331292</v>
+        <v>0.4030690376046415</v>
       </c>
       <c r="C5">
-        <v>0.5625568701275099</v>
+        <v>0.8867050914010124</v>
       </c>
       <c r="D5">
-        <v>0.175831384098754</v>
+        <v>0.8125646696020519</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.9176839217878889</v>
+        <v>0.879894740755619</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.233290907269317</v>
+        <v>0.6193835340776568</v>
       </c>
       <c r="C6">
-        <v>0.5261978668931748</v>
+        <v>0.8136704747584471</v>
       </c>
       <c r="D6">
-        <v>0.5266221328077765</v>
+        <v>0.7222417671898405</v>
       </c>
       <c r="E6">
-        <v>0.9176839217878889</v>
+        <v>0.879894740755619</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.1960779145433331</v>
+        <v>-0.8412698620809889</v>
       </c>
       <c r="D2">
-        <v>-0.08408345448158552</v>
+        <v>-1.322769779047075</v>
       </c>
       <c r="E2">
-        <v>-1.063005742191642</v>
+        <v>-0.8525982319186596</v>
       </c>
       <c r="F2">
-        <v>-1.245780504086022</v>
+        <v>-0.5038378780055601</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1960779145433331</v>
+        <v>0.8412698620809889</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1106253065631983</v>
+        <v>-0.08717092856197628</v>
       </c>
       <c r="E3">
-        <v>-0.5931256949115136</v>
+        <v>0.1441362434801743</v>
       </c>
       <c r="F3">
-        <v>-0.6500273470049559</v>
+        <v>0.2385396606391652</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08408345448158552</v>
+        <v>1.322769779047075</v>
       </c>
       <c r="C4">
-        <v>-0.1106253065631983</v>
+        <v>0.08717092856197628</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1.425835432289283</v>
+        <v>0.2399839395560169</v>
       </c>
       <c r="F4">
-        <v>-0.6493509535679736</v>
+        <v>0.3600520073010515</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.063005742191642</v>
+        <v>0.8525982319186596</v>
       </c>
       <c r="C5">
-        <v>0.5931256949115136</v>
+        <v>-0.1441362434801743</v>
       </c>
       <c r="D5">
-        <v>1.425835432289283</v>
+        <v>-0.2399839395560169</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1052328286658491</v>
+        <v>0.1528693390937647</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.245780504086022</v>
+        <v>0.5038378780055601</v>
       </c>
       <c r="C6">
-        <v>0.6500273470049559</v>
+        <v>-0.2385396606391652</v>
       </c>
       <c r="D6">
-        <v>0.6493509535679736</v>
+        <v>-0.3600520073010515</v>
       </c>
       <c r="E6">
-        <v>-0.1052328286658491</v>
+        <v>-0.1528693390937647</v>
       </c>
       <c r="F6">
         <v>0</v>
